--- a/public/import/weekly_template_DnD.xlsx
+++ b/public/import/weekly_template_DnD.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ALL FILE JOBDESK\DATA MALA\WEEKLY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\2023\AMPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD77A1-6FF1-4D4B-8653-DEB33A1939E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>year</t>
   </si>
@@ -52,69 +43,46 @@
     <t>Kirim AMPM tepat waktu</t>
   </si>
   <si>
-    <t>Cek Pembukuan CM,HY,Amazy</t>
-  </si>
-  <si>
-    <t>Cek Update Omset CM,HY,Amazy</t>
-  </si>
-  <si>
-    <t>Pengecekan Mutasi Trx Jurnal ID EDC+E-Wallet</t>
-  </si>
-  <si>
-    <t>Pengecekan Setoran Kantin,Nota Kantin &amp; Proses di CSA</t>
-  </si>
-  <si>
-    <t>Update Pengajuan Utang Bank PMCME,PMHY,&amp; BPAM</t>
-  </si>
-  <si>
-    <t>Rekap bank tampungan</t>
-  </si>
-  <si>
-    <t>Proses penginputan edc e-wallet Cm Hy Amazy</t>
-  </si>
-  <si>
-    <t>Pengarsipan Dokumen arsip online</t>
-  </si>
-  <si>
-    <t>Cek biaya CM &amp; AMAZY</t>
-  </si>
-  <si>
-    <t>Rekap PNL sementara</t>
-  </si>
-  <si>
-    <t>Proses Penyusutan &amp; Amortisasi</t>
-  </si>
-  <si>
-    <t>Tarik buku penjualan, buku besar, arus kas</t>
-  </si>
-  <si>
-    <t>Pengajuan bayar Sewa Amazy &amp; Complete Me</t>
+    <t>Helpdesk &amp; Monitoring Toko Complete Mulia &amp; Toko Mas An An</t>
+  </si>
+  <si>
+    <t>Monitoring Sinkronisasi ID Jurnal &amp; Moka</t>
+  </si>
+  <si>
+    <t>Monitoring Transaksi Penjualan di ID Jurnal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rekap data Customer Toko Mas An An dan Complete Mulia </t>
+  </si>
+  <si>
+    <t>Maintenance CCTV Toko Amazy &amp; Central Kitchen</t>
+  </si>
+  <si>
+    <t>Perbaikan Jalur internet wifi Kasir &amp; Customer Amazy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarik &amp; Rekap data penjualan bulan Juni toko Complete Mulia &amp; Toko Mas an an </t>
+  </si>
+  <si>
+    <t>Maintenance Laptop admin Complete Me &amp; Amazy</t>
+  </si>
+  <si>
+    <t>Maintenance Printer Admin Toko Complete Me &amp; Amazy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,17 +102,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -203,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,20 +412,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -480,203 +446,160 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2">
-        <v>35</v>
+      <c r="A2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="2">
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2022</v>
-      </c>
-      <c r="B3">
-        <v>35</v>
+      <c r="A3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="2">
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="2">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="2">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="2">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="2">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="2">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="2">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2022</v>
-      </c>
-      <c r="B6">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
+      <c r="A10" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="2">
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="2">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-      <c r="B15">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/public/import/weekly_template_DnD.xlsx
+++ b/public/import/weekly_template_DnD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\2023\AMPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD77A1-6FF1-4D4B-8653-DEB33A1939E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE03EDA-526D-46D7-8951-4463A6F99507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -43,45 +43,47 @@
     <t>Kirim AMPM tepat waktu</t>
   </si>
   <si>
+    <t>Monitoring Sinkronisasi ID Jurnal &amp; Moka</t>
+  </si>
+  <si>
+    <t>Monitoring Transaksi Penjualan di ID Jurnal</t>
+  </si>
+  <si>
     <t>Helpdesk &amp; Monitoring Toko Complete Mulia &amp; Toko Mas An An</t>
   </si>
   <si>
-    <t>Monitoring Sinkronisasi ID Jurnal &amp; Moka</t>
-  </si>
-  <si>
-    <t>Monitoring Transaksi Penjualan di ID Jurnal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rekap data Customer Toko Mas An An dan Complete Mulia </t>
-  </si>
-  <si>
-    <t>Maintenance CCTV Toko Amazy &amp; Central Kitchen</t>
-  </si>
-  <si>
-    <t>Perbaikan Jalur internet wifi Kasir &amp; Customer Amazy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarik &amp; Rekap data penjualan bulan Juni toko Complete Mulia &amp; Toko Mas an an </t>
-  </si>
-  <si>
-    <t>Maintenance Laptop admin Complete Me &amp; Amazy</t>
-  </si>
-  <si>
-    <t>Maintenance Printer Admin Toko Complete Me &amp; Amazy</t>
+    <t>Rekap data Customer Toko Mas An An</t>
+  </si>
+  <si>
+    <t>Instalasi komputer di Office Complete Me</t>
+  </si>
+  <si>
+    <t>Update Program NSI Complete Mulia</t>
+  </si>
+  <si>
+    <t>Setting windows update di Lpaotp Kasir &amp; Admin Toko Mas An An</t>
+  </si>
+  <si>
+    <t>Setting Menu baru Complete Me</t>
+  </si>
+  <si>
+    <t>Perbaikan CCTV Toko Ciledug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perbaikan CCTV area parkir Toko Mas An An </t>
+  </si>
+  <si>
+    <t>Perbaikan CCTV MOMOYO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -105,10 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,17 +416,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -446,161 +443,175 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="2">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B3" s="2">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3">
+        <v>2023</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="2">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B5" s="2">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="2">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B7" s="2">
-        <v>27</v>
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7">
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="2">
-        <v>27</v>
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8">
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="2">
-        <v>27</v>
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="2">
-        <v>27</v>
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10">
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="2">
-        <v>27</v>
+      <c r="A11">
+        <v>2023</v>
+      </c>
+      <c r="B11">
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/import/weekly_template_DnD.xlsx
+++ b/public/import/weekly_template_DnD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\2023\AMPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE03EDA-526D-46D7-8951-4463A6F99507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5553027-90AE-4BF9-A3A9-5642110455DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>year</t>
   </si>
@@ -55,25 +55,31 @@
     <t>Rekap data Customer Toko Mas An An</t>
   </si>
   <si>
-    <t>Instalasi komputer di Office Complete Me</t>
-  </si>
-  <si>
-    <t>Update Program NSI Complete Mulia</t>
-  </si>
-  <si>
-    <t>Setting windows update di Lpaotp Kasir &amp; Admin Toko Mas An An</t>
-  </si>
-  <si>
-    <t>Setting Menu baru Complete Me</t>
-  </si>
-  <si>
-    <t>Perbaikan CCTV Toko Ciledug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perbaikan CCTV area parkir Toko Mas An An </t>
-  </si>
-  <si>
-    <t>Perbaikan CCTV MOMOYO</t>
+    <t>Follow up update penambahan PPN Ke Helpdesk Nagatech</t>
+  </si>
+  <si>
+    <t>Revisi Bundling Menu di ID Jurnal Complete Me &amp; Hyangyu</t>
+  </si>
+  <si>
+    <t>Setting Perubahan Menu &amp; Harga Baru di MOKA Pos Complete Me &amp; Hyangyu</t>
+  </si>
+  <si>
+    <t>Update Sistem NSI Toko Mas an an &amp; Complete Mulia</t>
+  </si>
+  <si>
+    <t>Trial Update Siatem NSI Toko Mas An An &amp; Complete Mulia</t>
+  </si>
+  <si>
+    <t>Reposisi Kamera CCTV Complete Me</t>
+  </si>
+  <si>
+    <t>Instalasi Kamera baru &amp; Peremajaan CCTV Toko Mas An An</t>
+  </si>
+  <si>
+    <t>Setting Shoppefood MOMOYO</t>
+  </si>
+  <si>
+    <t>Prepare data untuk Update Bundling Complete Me &amp; Hyangyu</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +453,7 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -461,7 +467,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -475,7 +481,7 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -489,7 +495,7 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -503,7 +509,7 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -517,10 +523,10 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -531,10 +537,10 @@
         <v>2023</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -545,10 +551,10 @@
         <v>2023</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -559,10 +565,10 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -573,10 +579,10 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -587,10 +593,10 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -601,12 +607,40 @@
         <v>2023</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2023</v>
+      </c>
+      <c r="B14">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>5</v>
       </c>
     </row>

--- a/public/import/weekly_template_DnD.xlsx
+++ b/public/import/weekly_template_DnD.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\2023\AMPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5553027-90AE-4BF9-A3A9-5642110455DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
+  <calcPr calcId="152511" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>year</t>
   </si>
@@ -55,42 +54,36 @@
     <t>Rekap data Customer Toko Mas An An</t>
   </si>
   <si>
-    <t>Follow up update penambahan PPN Ke Helpdesk Nagatech</t>
-  </si>
-  <si>
-    <t>Revisi Bundling Menu di ID Jurnal Complete Me &amp; Hyangyu</t>
-  </si>
-  <si>
-    <t>Setting Perubahan Menu &amp; Harga Baru di MOKA Pos Complete Me &amp; Hyangyu</t>
-  </si>
-  <si>
-    <t>Update Sistem NSI Toko Mas an an &amp; Complete Mulia</t>
-  </si>
-  <si>
-    <t>Trial Update Siatem NSI Toko Mas An An &amp; Complete Mulia</t>
-  </si>
-  <si>
-    <t>Reposisi Kamera CCTV Complete Me</t>
-  </si>
-  <si>
-    <t>Instalasi Kamera baru &amp; Peremajaan CCTV Toko Mas An An</t>
-  </si>
-  <si>
-    <t>Setting Shoppefood MOMOYO</t>
-  </si>
-  <si>
-    <t>Prepare data untuk Update Bundling Complete Me &amp; Hyangyu</t>
+    <t>Maintenace internet &amp; CCTV Amazy &amp; Central Kitchen</t>
+  </si>
+  <si>
+    <t>Maintenance CCTV,Internet &amp; Printer admin Complete Me</t>
+  </si>
+  <si>
+    <t>Maintenance Komputer Server &amp; CCTV Toko Mas an an</t>
+  </si>
+  <si>
+    <t>Revisi Harga online di Onlien Store Complete Me &amp; Hyangyu</t>
+  </si>
+  <si>
+    <t>Ubah promo Happy Hour di MOKA Pos Complete Me</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,7 +205,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,16 +413,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -453,7 +447,7 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -467,7 +461,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -481,7 +475,7 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -495,7 +489,7 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -509,7 +503,7 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -523,10 +517,10 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -537,10 +531,10 @@
         <v>2023</v>
       </c>
       <c r="B8">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -551,10 +545,10 @@
         <v>2023</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -565,10 +559,10 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -579,68 +573,12 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2023</v>
-      </c>
-      <c r="B12">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2023</v>
-      </c>
-      <c r="B13">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2023</v>
-      </c>
-      <c r="B14">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
         <v>5</v>
       </c>
     </row>
